--- a/xlsx/英國_intext.xlsx
+++ b/xlsx/英國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2466">
   <si>
     <t>英國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>英格蘭</t>
   </si>
   <si>
-    <t>政策_政策_行政_英國</t>
+    <t>体育运动_体育运动_奥林匹克运动会_英國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B_(%E8%AB%B8%E4%BE%AF%E5%9C%8B)</t>
@@ -1250,10 +1250,10 @@
     <t>格拉斯哥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A8%81%E7%88%BE%E6%96%AF</t>
-  </si>
-  <si>
-    <t>南威爾斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A8%81%E5%B0%94%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>南威尔士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%97%BA%E8%A5%BF</t>
@@ -3686,6 +3686,12 @@
     <t>英国荣誉制度</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>英屬香港</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%8B%B1%E5%9C%8B%E4%B8%BB%E9%A1%8C</t>
   </si>
   <si>
@@ -4370,10 +4376,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -4382,6 +4388,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -4418,10 +4430,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -4514,18 +4526,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -4544,10 +4556,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
@@ -4574,16 +4586,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -4592,10 +4610,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -7743,7 +7761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1305"/>
+  <dimension ref="A1:I1308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8174,7 +8192,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -10233,7 +10251,7 @@
         <v>168</v>
       </c>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -10639,7 +10657,7 @@
         <v>190</v>
       </c>
       <c r="G100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -10668,7 +10686,7 @@
         <v>192</v>
       </c>
       <c r="G101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -10697,7 +10715,7 @@
         <v>194</v>
       </c>
       <c r="G102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -13075,7 +13093,7 @@
         <v>340</v>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -16062,7 +16080,7 @@
         <v>530</v>
       </c>
       <c r="G287" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -26357,7 +26375,7 @@
         <v>1224</v>
       </c>
       <c r="G642" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -26380,13 +26398,13 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1135</v>
+        <v>1225</v>
       </c>
       <c r="F643" t="s">
-        <v>1136</v>
+        <v>1226</v>
       </c>
       <c r="G643" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -26409,13 +26427,13 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1225</v>
+        <v>1135</v>
       </c>
       <c r="F644" t="s">
-        <v>1226</v>
+        <v>1136</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -26438,10 +26456,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>89</v>
+        <v>1227</v>
       </c>
       <c r="F645" t="s">
-        <v>90</v>
+        <v>1228</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -26467,10 +26485,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1227</v>
+        <v>89</v>
       </c>
       <c r="F646" t="s">
-        <v>1228</v>
+        <v>90</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -26647,7 +26665,7 @@
         <v>1240</v>
       </c>
       <c r="G652" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -26676,7 +26694,7 @@
         <v>1242</v>
       </c>
       <c r="G653" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -26699,13 +26717,13 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>527</v>
+        <v>1243</v>
       </c>
       <c r="F654" t="s">
-        <v>528</v>
+        <v>1244</v>
       </c>
       <c r="G654" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
@@ -26728,10 +26746,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>187</v>
+        <v>527</v>
       </c>
       <c r="F655" t="s">
-        <v>188</v>
+        <v>528</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -26757,10 +26775,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1243</v>
+        <v>187</v>
       </c>
       <c r="F656" t="s">
-        <v>1244</v>
+        <v>188</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -26786,13 +26804,13 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>291</v>
+        <v>1245</v>
       </c>
       <c r="F657" t="s">
-        <v>292</v>
+        <v>1246</v>
       </c>
       <c r="G657" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H657" t="s">
         <v>4</v>
@@ -26815,13 +26833,13 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1245</v>
+        <v>291</v>
       </c>
       <c r="F658" t="s">
-        <v>1246</v>
+        <v>292</v>
       </c>
       <c r="G658" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H658" t="s">
         <v>4</v>
@@ -26879,7 +26897,7 @@
         <v>1250</v>
       </c>
       <c r="G660" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -26908,7 +26926,7 @@
         <v>1252</v>
       </c>
       <c r="G661" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H661" t="s">
         <v>4</v>
@@ -26937,7 +26955,7 @@
         <v>1254</v>
       </c>
       <c r="G662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H662" t="s">
         <v>4</v>
@@ -27082,7 +27100,7 @@
         <v>1264</v>
       </c>
       <c r="G667" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -27111,7 +27129,7 @@
         <v>1266</v>
       </c>
       <c r="G668" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -27140,7 +27158,7 @@
         <v>1268</v>
       </c>
       <c r="G669" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -27169,7 +27187,7 @@
         <v>1270</v>
       </c>
       <c r="G670" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -27198,7 +27216,7 @@
         <v>1272</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H671" t="s">
         <v>4</v>
@@ -27256,7 +27274,7 @@
         <v>1276</v>
       </c>
       <c r="G673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -27285,7 +27303,7 @@
         <v>1278</v>
       </c>
       <c r="G674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H674" t="s">
         <v>4</v>
@@ -27401,7 +27419,7 @@
         <v>1286</v>
       </c>
       <c r="G678" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -27430,7 +27448,7 @@
         <v>1288</v>
       </c>
       <c r="G679" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H679" t="s">
         <v>4</v>
@@ -27598,10 +27616,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>503</v>
+        <v>1299</v>
       </c>
       <c r="F685" t="s">
-        <v>504</v>
+        <v>1300</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -27627,13 +27645,13 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1299</v>
+        <v>503</v>
       </c>
       <c r="F686" t="s">
-        <v>1300</v>
+        <v>504</v>
       </c>
       <c r="G686" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H686" t="s">
         <v>4</v>
@@ -27662,7 +27680,7 @@
         <v>1302</v>
       </c>
       <c r="G687" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H687" t="s">
         <v>4</v>
@@ -27691,7 +27709,7 @@
         <v>1304</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -27749,7 +27767,7 @@
         <v>1308</v>
       </c>
       <c r="G690" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H690" t="s">
         <v>4</v>
@@ -27778,7 +27796,7 @@
         <v>1310</v>
       </c>
       <c r="G691" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -27807,7 +27825,7 @@
         <v>1312</v>
       </c>
       <c r="G692" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H692" t="s">
         <v>4</v>
@@ -27836,7 +27854,7 @@
         <v>1314</v>
       </c>
       <c r="G693" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H693" t="s">
         <v>4</v>
@@ -27865,7 +27883,7 @@
         <v>1316</v>
       </c>
       <c r="G694" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H694" t="s">
         <v>4</v>
@@ -27888,13 +27906,13 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>571</v>
+        <v>1317</v>
       </c>
       <c r="F695" t="s">
-        <v>572</v>
+        <v>1318</v>
       </c>
       <c r="G695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -27917,13 +27935,13 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1317</v>
+        <v>571</v>
       </c>
       <c r="F696" t="s">
-        <v>1318</v>
+        <v>572</v>
       </c>
       <c r="G696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -27952,7 +27970,7 @@
         <v>1320</v>
       </c>
       <c r="G697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H697" t="s">
         <v>4</v>
@@ -27981,7 +27999,7 @@
         <v>1322</v>
       </c>
       <c r="G698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H698" t="s">
         <v>4</v>
@@ -28004,13 +28022,13 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>433</v>
+        <v>1323</v>
       </c>
       <c r="F699" t="s">
-        <v>434</v>
+        <v>1324</v>
       </c>
       <c r="G699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -28033,10 +28051,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1323</v>
+        <v>433</v>
       </c>
       <c r="F700" t="s">
-        <v>1324</v>
+        <v>434</v>
       </c>
       <c r="G700" t="n">
         <v>2</v>
@@ -28068,7 +28086,7 @@
         <v>1326</v>
       </c>
       <c r="G701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -28091,13 +28109,13 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>553</v>
+        <v>1327</v>
       </c>
       <c r="F702" t="s">
-        <v>554</v>
+        <v>1328</v>
       </c>
       <c r="G702" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H702" t="s">
         <v>4</v>
@@ -28120,13 +28138,13 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F703" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G703" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H703" t="s">
         <v>4</v>
@@ -28149,13 +28167,13 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F704" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G704" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H704" t="s">
         <v>4</v>
@@ -28178,13 +28196,13 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1327</v>
+        <v>579</v>
       </c>
       <c r="F705" t="s">
-        <v>1328</v>
+        <v>580</v>
       </c>
       <c r="G705" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H705" t="s">
         <v>4</v>
@@ -28207,13 +28225,13 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>581</v>
+        <v>1329</v>
       </c>
       <c r="F706" t="s">
-        <v>582</v>
+        <v>1330</v>
       </c>
       <c r="G706" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -28236,13 +28254,13 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1329</v>
+        <v>581</v>
       </c>
       <c r="F707" t="s">
-        <v>1330</v>
+        <v>582</v>
       </c>
       <c r="G707" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -28271,7 +28289,7 @@
         <v>1332</v>
       </c>
       <c r="G708" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H708" t="s">
         <v>4</v>
@@ -28329,7 +28347,7 @@
         <v>1336</v>
       </c>
       <c r="G710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -28358,7 +28376,7 @@
         <v>1338</v>
       </c>
       <c r="G711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -28410,13 +28428,13 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>649</v>
+        <v>1341</v>
       </c>
       <c r="F713" t="s">
-        <v>650</v>
+        <v>1342</v>
       </c>
       <c r="G713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -28439,13 +28457,13 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1341</v>
+        <v>649</v>
       </c>
       <c r="F714" t="s">
-        <v>1342</v>
+        <v>650</v>
       </c>
       <c r="G714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H714" t="s">
         <v>4</v>
@@ -28474,7 +28492,7 @@
         <v>1344</v>
       </c>
       <c r="G715" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -28532,7 +28550,7 @@
         <v>1348</v>
       </c>
       <c r="G717" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -28619,7 +28637,7 @@
         <v>1354</v>
       </c>
       <c r="G720" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H720" t="s">
         <v>4</v>
@@ -28648,7 +28666,7 @@
         <v>1356</v>
       </c>
       <c r="G721" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -28735,7 +28753,7 @@
         <v>1362</v>
       </c>
       <c r="G724" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H724" t="s">
         <v>4</v>
@@ -28764,7 +28782,7 @@
         <v>1364</v>
       </c>
       <c r="G725" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H725" t="s">
         <v>4</v>
@@ -28909,7 +28927,7 @@
         <v>1374</v>
       </c>
       <c r="G730" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H730" t="s">
         <v>4</v>
@@ -28938,7 +28956,7 @@
         <v>1376</v>
       </c>
       <c r="G731" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -28961,13 +28979,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1077</v>
+        <v>1377</v>
       </c>
       <c r="F732" t="s">
-        <v>1078</v>
+        <v>1378</v>
       </c>
       <c r="G732" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -28990,13 +29008,13 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1377</v>
+        <v>1077</v>
       </c>
       <c r="F733" t="s">
-        <v>1378</v>
+        <v>1078</v>
       </c>
       <c r="G733" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -29019,13 +29037,13 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>997</v>
+        <v>1379</v>
       </c>
       <c r="F734" t="s">
-        <v>998</v>
+        <v>1380</v>
       </c>
       <c r="G734" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -29048,13 +29066,13 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1379</v>
+        <v>997</v>
       </c>
       <c r="F735" t="s">
-        <v>1380</v>
+        <v>998</v>
       </c>
       <c r="G735" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -29083,7 +29101,7 @@
         <v>1382</v>
       </c>
       <c r="G736" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -29112,7 +29130,7 @@
         <v>1384</v>
       </c>
       <c r="G737" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H737" t="s">
         <v>4</v>
@@ -29141,7 +29159,7 @@
         <v>1386</v>
       </c>
       <c r="G738" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H738" t="s">
         <v>4</v>
@@ -29170,7 +29188,7 @@
         <v>1388</v>
       </c>
       <c r="G739" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H739" t="s">
         <v>4</v>
@@ -29199,7 +29217,7 @@
         <v>1390</v>
       </c>
       <c r="G740" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -29228,7 +29246,7 @@
         <v>1392</v>
       </c>
       <c r="G741" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H741" t="s">
         <v>4</v>
@@ -29257,7 +29275,7 @@
         <v>1394</v>
       </c>
       <c r="G742" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -29286,7 +29304,7 @@
         <v>1396</v>
       </c>
       <c r="G743" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -29315,7 +29333,7 @@
         <v>1398</v>
       </c>
       <c r="G744" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H744" t="s">
         <v>4</v>
@@ -29344,7 +29362,7 @@
         <v>1400</v>
       </c>
       <c r="G745" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H745" t="s">
         <v>4</v>
@@ -29373,7 +29391,7 @@
         <v>1402</v>
       </c>
       <c r="G746" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H746" t="s">
         <v>4</v>
@@ -29402,7 +29420,7 @@
         <v>1404</v>
       </c>
       <c r="G747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H747" t="s">
         <v>4</v>
@@ -29431,7 +29449,7 @@
         <v>1406</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -29460,7 +29478,7 @@
         <v>1408</v>
       </c>
       <c r="G749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -29483,13 +29501,13 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1161</v>
+        <v>1409</v>
       </c>
       <c r="F750" t="s">
-        <v>1162</v>
+        <v>1410</v>
       </c>
       <c r="G750" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -29512,13 +29530,13 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F751" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H751" t="s">
         <v>4</v>
@@ -29541,13 +29559,13 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="F752" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="G752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -29570,13 +29588,13 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>205</v>
+        <v>1159</v>
       </c>
       <c r="F753" t="s">
-        <v>206</v>
+        <v>1160</v>
       </c>
       <c r="G753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -29599,13 +29617,13 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1409</v>
+        <v>205</v>
       </c>
       <c r="F754" t="s">
-        <v>1410</v>
+        <v>206</v>
       </c>
       <c r="G754" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H754" t="s">
         <v>4</v>
@@ -29634,7 +29652,7 @@
         <v>1412</v>
       </c>
       <c r="G755" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H755" t="s">
         <v>4</v>
@@ -29657,10 +29675,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F756" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -29692,7 +29710,7 @@
         <v>1414</v>
       </c>
       <c r="G757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -29721,7 +29739,7 @@
         <v>1416</v>
       </c>
       <c r="G758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -29750,7 +29768,7 @@
         <v>1418</v>
       </c>
       <c r="G759" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -29837,7 +29855,7 @@
         <v>1424</v>
       </c>
       <c r="G762" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -29866,7 +29884,7 @@
         <v>1426</v>
       </c>
       <c r="G763" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -29895,7 +29913,7 @@
         <v>1428</v>
       </c>
       <c r="G764" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -29924,7 +29942,7 @@
         <v>1430</v>
       </c>
       <c r="G765" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -29982,7 +30000,7 @@
         <v>1434</v>
       </c>
       <c r="G767" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -30011,7 +30029,7 @@
         <v>1436</v>
       </c>
       <c r="G768" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H768" t="s">
         <v>4</v>
@@ -30040,7 +30058,7 @@
         <v>1438</v>
       </c>
       <c r="G769" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H769" t="s">
         <v>4</v>
@@ -30069,7 +30087,7 @@
         <v>1440</v>
       </c>
       <c r="G770" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -30127,7 +30145,7 @@
         <v>1444</v>
       </c>
       <c r="G772" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H772" t="s">
         <v>4</v>
@@ -30156,7 +30174,7 @@
         <v>1446</v>
       </c>
       <c r="G773" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H773" t="s">
         <v>4</v>
@@ -30185,7 +30203,7 @@
         <v>1448</v>
       </c>
       <c r="G774" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -30243,7 +30261,7 @@
         <v>1452</v>
       </c>
       <c r="G776" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H776" t="s">
         <v>4</v>
@@ -30272,7 +30290,7 @@
         <v>1454</v>
       </c>
       <c r="G777" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H777" t="s">
         <v>4</v>
@@ -30301,7 +30319,7 @@
         <v>1456</v>
       </c>
       <c r="G778" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -30330,7 +30348,7 @@
         <v>1458</v>
       </c>
       <c r="G779" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -30359,7 +30377,7 @@
         <v>1460</v>
       </c>
       <c r="G780" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -30417,7 +30435,7 @@
         <v>1464</v>
       </c>
       <c r="G782" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30446,7 +30464,7 @@
         <v>1466</v>
       </c>
       <c r="G783" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H783" t="s">
         <v>4</v>
@@ -30475,7 +30493,7 @@
         <v>1468</v>
       </c>
       <c r="G784" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -30504,7 +30522,7 @@
         <v>1470</v>
       </c>
       <c r="G785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -30562,7 +30580,7 @@
         <v>1474</v>
       </c>
       <c r="G787" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -30591,7 +30609,7 @@
         <v>1476</v>
       </c>
       <c r="G788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -30620,7 +30638,7 @@
         <v>1478</v>
       </c>
       <c r="G789" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -30649,7 +30667,7 @@
         <v>1480</v>
       </c>
       <c r="G790" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -30707,7 +30725,7 @@
         <v>1484</v>
       </c>
       <c r="G792" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -30736,7 +30754,7 @@
         <v>1486</v>
       </c>
       <c r="G793" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30765,7 +30783,7 @@
         <v>1488</v>
       </c>
       <c r="G794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -30794,7 +30812,7 @@
         <v>1490</v>
       </c>
       <c r="G795" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -30823,7 +30841,7 @@
         <v>1492</v>
       </c>
       <c r="G796" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30852,7 +30870,7 @@
         <v>1494</v>
       </c>
       <c r="G797" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -30881,7 +30899,7 @@
         <v>1496</v>
       </c>
       <c r="G798" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -30910,7 +30928,7 @@
         <v>1498</v>
       </c>
       <c r="G799" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -30939,7 +30957,7 @@
         <v>1500</v>
       </c>
       <c r="G800" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -30968,7 +30986,7 @@
         <v>1502</v>
       </c>
       <c r="G801" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -31026,7 +31044,7 @@
         <v>1506</v>
       </c>
       <c r="G803" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H803" t="s">
         <v>4</v>
@@ -31055,7 +31073,7 @@
         <v>1508</v>
       </c>
       <c r="G804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -31084,7 +31102,7 @@
         <v>1510</v>
       </c>
       <c r="G805" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -31107,13 +31125,13 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>207</v>
+        <v>1511</v>
       </c>
       <c r="F806" t="s">
-        <v>208</v>
+        <v>1512</v>
       </c>
       <c r="G806" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -31136,10 +31154,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="F807" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -31165,10 +31183,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1513</v>
+        <v>207</v>
       </c>
       <c r="F808" t="s">
-        <v>1514</v>
+        <v>208</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -31258,7 +31276,7 @@
         <v>1520</v>
       </c>
       <c r="G811" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -31316,7 +31334,7 @@
         <v>1524</v>
       </c>
       <c r="G813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -31345,7 +31363,7 @@
         <v>1526</v>
       </c>
       <c r="G814" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -31403,7 +31421,7 @@
         <v>1530</v>
       </c>
       <c r="G816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -31432,7 +31450,7 @@
         <v>1532</v>
       </c>
       <c r="G817" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -31490,7 +31508,7 @@
         <v>1536</v>
       </c>
       <c r="G819" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -31519,7 +31537,7 @@
         <v>1538</v>
       </c>
       <c r="G820" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -31606,7 +31624,7 @@
         <v>1544</v>
       </c>
       <c r="G823" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H823" t="s">
         <v>4</v>
@@ -31629,13 +31647,13 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1417</v>
+        <v>1545</v>
       </c>
       <c r="F824" t="s">
-        <v>1418</v>
+        <v>1546</v>
       </c>
       <c r="G824" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -31658,10 +31676,10 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="F825" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="G825" t="n">
         <v>1</v>
@@ -31687,13 +31705,13 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="F826" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="G826" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -31716,13 +31734,13 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1549</v>
+        <v>1419</v>
       </c>
       <c r="F827" t="s">
-        <v>1550</v>
+        <v>1420</v>
       </c>
       <c r="G827" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H827" t="s">
         <v>4</v>
@@ -31751,7 +31769,7 @@
         <v>1552</v>
       </c>
       <c r="G828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H828" t="s">
         <v>4</v>
@@ -31838,7 +31856,7 @@
         <v>1558</v>
       </c>
       <c r="G831" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H831" t="s">
         <v>4</v>
@@ -32070,7 +32088,7 @@
         <v>1574</v>
       </c>
       <c r="G839" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H839" t="s">
         <v>4</v>
@@ -32099,7 +32117,7 @@
         <v>1576</v>
       </c>
       <c r="G840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -32128,7 +32146,7 @@
         <v>1578</v>
       </c>
       <c r="G841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -32157,7 +32175,7 @@
         <v>1580</v>
       </c>
       <c r="G842" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H842" t="s">
         <v>4</v>
@@ -32186,7 +32204,7 @@
         <v>1582</v>
       </c>
       <c r="G843" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H843" t="s">
         <v>4</v>
@@ -32215,7 +32233,7 @@
         <v>1584</v>
       </c>
       <c r="G844" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H844" t="s">
         <v>4</v>
@@ -32238,10 +32256,10 @@
         <v>844</v>
       </c>
       <c r="E845" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="F845" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="G845" t="n">
         <v>1</v>
@@ -32267,10 +32285,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F846" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -32296,13 +32314,13 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="F847" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="G847" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H847" t="s">
         <v>4</v>
@@ -32389,7 +32407,7 @@
         <v>1594</v>
       </c>
       <c r="G850" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H850" t="s">
         <v>4</v>
@@ -32824,7 +32842,7 @@
         <v>1624</v>
       </c>
       <c r="G865" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H865" t="s">
         <v>4</v>
@@ -32911,7 +32929,7 @@
         <v>1630</v>
       </c>
       <c r="G868" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -32992,13 +33010,13 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1477</v>
+        <v>1635</v>
       </c>
       <c r="F871" t="s">
-        <v>1478</v>
+        <v>1636</v>
       </c>
       <c r="G871" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H871" t="s">
         <v>4</v>
@@ -33021,10 +33039,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="F872" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -33050,10 +33068,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="F873" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -33079,13 +33097,13 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1639</v>
+        <v>1481</v>
       </c>
       <c r="F874" t="s">
-        <v>1640</v>
+        <v>1482</v>
       </c>
       <c r="G874" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H874" t="s">
         <v>4</v>
@@ -33143,7 +33161,7 @@
         <v>1644</v>
       </c>
       <c r="G876" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H876" t="s">
         <v>4</v>
@@ -33172,7 +33190,7 @@
         <v>1646</v>
       </c>
       <c r="G877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H877" t="s">
         <v>4</v>
@@ -33230,7 +33248,7 @@
         <v>1650</v>
       </c>
       <c r="G879" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -33253,13 +33271,13 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>245</v>
+        <v>1651</v>
       </c>
       <c r="F880" t="s">
-        <v>246</v>
+        <v>1652</v>
       </c>
       <c r="G880" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H880" t="s">
         <v>4</v>
@@ -33282,10 +33300,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="F881" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -33311,13 +33329,13 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F882" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="G882" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H882" t="s">
         <v>4</v>
@@ -33340,13 +33358,13 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1655</v>
+        <v>245</v>
       </c>
       <c r="F883" t="s">
-        <v>1656</v>
+        <v>246</v>
       </c>
       <c r="G883" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -33404,7 +33422,7 @@
         <v>1660</v>
       </c>
       <c r="G885" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -33572,10 +33590,10 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1137</v>
+        <v>1671</v>
       </c>
       <c r="F891" t="s">
-        <v>1138</v>
+        <v>1672</v>
       </c>
       <c r="G891" t="n">
         <v>1</v>
@@ -33601,10 +33619,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="F892" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -33630,10 +33648,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="F893" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -33659,10 +33677,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1675</v>
+        <v>1137</v>
       </c>
       <c r="F894" t="s">
-        <v>1676</v>
+        <v>1138</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -33723,7 +33741,7 @@
         <v>1680</v>
       </c>
       <c r="G896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H896" t="s">
         <v>4</v>
@@ -33752,7 +33770,7 @@
         <v>1682</v>
       </c>
       <c r="G897" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H897" t="s">
         <v>4</v>
@@ -33781,7 +33799,7 @@
         <v>1684</v>
       </c>
       <c r="G898" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H898" t="s">
         <v>4</v>
@@ -33804,13 +33822,13 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>245</v>
+        <v>1685</v>
       </c>
       <c r="F899" t="s">
-        <v>246</v>
+        <v>1686</v>
       </c>
       <c r="G899" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H899" t="s">
         <v>4</v>
@@ -33833,13 +33851,13 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="F900" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="G900" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H900" t="s">
         <v>4</v>
@@ -33862,13 +33880,13 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="F901" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="G901" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H901" t="s">
         <v>4</v>
@@ -33891,10 +33909,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1689</v>
+        <v>245</v>
       </c>
       <c r="F902" t="s">
-        <v>1690</v>
+        <v>246</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -33926,7 +33944,7 @@
         <v>1692</v>
       </c>
       <c r="G903" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H903" t="s">
         <v>4</v>
@@ -34007,10 +34025,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1653</v>
+        <v>1697</v>
       </c>
       <c r="F906" t="s">
-        <v>1654</v>
+        <v>1698</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -34036,13 +34054,13 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F907" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="G907" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H907" t="s">
         <v>4</v>
@@ -34065,13 +34083,13 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="F908" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="G908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H908" t="s">
         <v>4</v>
@@ -34094,13 +34112,13 @@
         <v>908</v>
       </c>
       <c r="E909" t="s">
-        <v>1701</v>
+        <v>1659</v>
       </c>
       <c r="F909" t="s">
-        <v>1702</v>
+        <v>1660</v>
       </c>
       <c r="G909" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H909" t="s">
         <v>4</v>
@@ -34158,7 +34176,7 @@
         <v>1706</v>
       </c>
       <c r="G911" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -34187,7 +34205,7 @@
         <v>1708</v>
       </c>
       <c r="G912" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H912" t="s">
         <v>4</v>
@@ -34245,7 +34263,7 @@
         <v>1712</v>
       </c>
       <c r="G914" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H914" t="s">
         <v>4</v>
@@ -34274,7 +34292,7 @@
         <v>1714</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H915" t="s">
         <v>4</v>
@@ -34303,7 +34321,7 @@
         <v>1716</v>
       </c>
       <c r="G916" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H916" t="s">
         <v>4</v>
@@ -34332,7 +34350,7 @@
         <v>1718</v>
       </c>
       <c r="G917" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H917" t="s">
         <v>4</v>
@@ -34355,13 +34373,13 @@
         <v>917</v>
       </c>
       <c r="E918" t="s">
-        <v>1495</v>
+        <v>1719</v>
       </c>
       <c r="F918" t="s">
-        <v>1496</v>
+        <v>1720</v>
       </c>
       <c r="G918" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -34384,13 +34402,13 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="F919" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="G919" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -34413,13 +34431,13 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="F920" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="G920" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -34442,13 +34460,13 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1723</v>
+        <v>1499</v>
       </c>
       <c r="F921" t="s">
-        <v>1724</v>
+        <v>1500</v>
       </c>
       <c r="G921" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -34477,7 +34495,7 @@
         <v>1726</v>
       </c>
       <c r="G922" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -34535,7 +34553,7 @@
         <v>1730</v>
       </c>
       <c r="G924" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -34564,7 +34582,7 @@
         <v>1732</v>
       </c>
       <c r="G925" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -34593,7 +34611,7 @@
         <v>1734</v>
       </c>
       <c r="G926" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H926" t="s">
         <v>4</v>
@@ -34622,7 +34640,7 @@
         <v>1736</v>
       </c>
       <c r="G927" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H927" t="s">
         <v>4</v>
@@ -34651,7 +34669,7 @@
         <v>1738</v>
       </c>
       <c r="G928" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -34680,7 +34698,7 @@
         <v>1740</v>
       </c>
       <c r="G929" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -34709,7 +34727,7 @@
         <v>1742</v>
       </c>
       <c r="G930" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -34738,7 +34756,7 @@
         <v>1744</v>
       </c>
       <c r="G931" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H931" t="s">
         <v>4</v>
@@ -34767,7 +34785,7 @@
         <v>1746</v>
       </c>
       <c r="G932" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H932" t="s">
         <v>4</v>
@@ -34796,7 +34814,7 @@
         <v>1748</v>
       </c>
       <c r="G933" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H933" t="s">
         <v>4</v>
@@ -34854,7 +34872,7 @@
         <v>1752</v>
       </c>
       <c r="G935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H935" t="s">
         <v>4</v>
@@ -34883,7 +34901,7 @@
         <v>1754</v>
       </c>
       <c r="G936" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H936" t="s">
         <v>4</v>
@@ -34941,7 +34959,7 @@
         <v>1758</v>
       </c>
       <c r="G938" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H938" t="s">
         <v>4</v>
@@ -35028,7 +35046,7 @@
         <v>1764</v>
       </c>
       <c r="G941" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H941" t="s">
         <v>4</v>
@@ -35057,7 +35075,7 @@
         <v>1766</v>
       </c>
       <c r="G942" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H942" t="s">
         <v>4</v>
@@ -35086,7 +35104,7 @@
         <v>1768</v>
       </c>
       <c r="G943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H943" t="s">
         <v>4</v>
@@ -35115,7 +35133,7 @@
         <v>1770</v>
       </c>
       <c r="G944" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -35144,7 +35162,7 @@
         <v>1772</v>
       </c>
       <c r="G945" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H945" t="s">
         <v>4</v>
@@ -35173,7 +35191,7 @@
         <v>1774</v>
       </c>
       <c r="G946" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H946" t="s">
         <v>4</v>
@@ -35202,7 +35220,7 @@
         <v>1776</v>
       </c>
       <c r="G947" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -35231,7 +35249,7 @@
         <v>1778</v>
       </c>
       <c r="G948" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H948" t="s">
         <v>4</v>
@@ -35260,7 +35278,7 @@
         <v>1780</v>
       </c>
       <c r="G949" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H949" t="s">
         <v>4</v>
@@ -35318,7 +35336,7 @@
         <v>1784</v>
       </c>
       <c r="G951" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H951" t="s">
         <v>4</v>
@@ -35347,7 +35365,7 @@
         <v>1786</v>
       </c>
       <c r="G952" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H952" t="s">
         <v>4</v>
@@ -35376,7 +35394,7 @@
         <v>1788</v>
       </c>
       <c r="G953" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H953" t="s">
         <v>4</v>
@@ -35405,7 +35423,7 @@
         <v>1790</v>
       </c>
       <c r="G954" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H954" t="s">
         <v>4</v>
@@ -35434,7 +35452,7 @@
         <v>1792</v>
       </c>
       <c r="G955" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H955" t="s">
         <v>4</v>
@@ -35521,7 +35539,7 @@
         <v>1798</v>
       </c>
       <c r="G958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H958" t="s">
         <v>4</v>
@@ -35666,7 +35684,7 @@
         <v>1808</v>
       </c>
       <c r="G963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -35753,7 +35771,7 @@
         <v>1814</v>
       </c>
       <c r="G966" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -35985,7 +36003,7 @@
         <v>1830</v>
       </c>
       <c r="G974" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H974" t="s">
         <v>4</v>
@@ -36072,7 +36090,7 @@
         <v>1836</v>
       </c>
       <c r="G977" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H977" t="s">
         <v>4</v>
@@ -36507,7 +36525,7 @@
         <v>1866</v>
       </c>
       <c r="G992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H992" t="s">
         <v>4</v>
@@ -36536,7 +36554,7 @@
         <v>1868</v>
       </c>
       <c r="G993" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H993" t="s">
         <v>4</v>
@@ -36565,7 +36583,7 @@
         <v>1870</v>
       </c>
       <c r="G994" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H994" t="s">
         <v>4</v>
@@ -36623,7 +36641,7 @@
         <v>1874</v>
       </c>
       <c r="G996" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H996" t="s">
         <v>4</v>
@@ -36681,7 +36699,7 @@
         <v>1878</v>
       </c>
       <c r="G998" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -36710,7 +36728,7 @@
         <v>1880</v>
       </c>
       <c r="G999" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -36739,7 +36757,7 @@
         <v>1882</v>
       </c>
       <c r="G1000" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1000" t="s">
         <v>4</v>
@@ -36826,7 +36844,7 @@
         <v>1888</v>
       </c>
       <c r="G1003" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -36942,7 +36960,7 @@
         <v>1896</v>
       </c>
       <c r="G1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1007" t="s">
         <v>4</v>
@@ -37029,7 +37047,7 @@
         <v>1902</v>
       </c>
       <c r="G1010" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1010" t="s">
         <v>4</v>
@@ -37226,13 +37244,13 @@
         <v>1016</v>
       </c>
       <c r="E1017" t="s">
-        <v>551</v>
+        <v>1915</v>
       </c>
       <c r="F1017" t="s">
-        <v>552</v>
+        <v>1916</v>
       </c>
       <c r="G1017" t="n">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="H1017" t="s">
         <v>4</v>
@@ -37255,10 +37273,10 @@
         <v>1017</v>
       </c>
       <c r="E1018" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="F1018" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="G1018" t="n">
         <v>1</v>
@@ -37284,10 +37302,10 @@
         <v>1018</v>
       </c>
       <c r="E1019" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="F1019" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="G1019" t="n">
         <v>1</v>
@@ -37313,13 +37331,13 @@
         <v>1019</v>
       </c>
       <c r="E1020" t="s">
-        <v>1919</v>
+        <v>551</v>
       </c>
       <c r="F1020" t="s">
-        <v>1920</v>
+        <v>552</v>
       </c>
       <c r="G1020" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="H1020" t="s">
         <v>4</v>
@@ -37487,10 +37505,10 @@
         <v>1025</v>
       </c>
       <c r="E1026" t="s">
-        <v>257</v>
+        <v>1931</v>
       </c>
       <c r="F1026" t="s">
-        <v>258</v>
+        <v>1932</v>
       </c>
       <c r="G1026" t="n">
         <v>1</v>
@@ -37516,10 +37534,10 @@
         <v>1026</v>
       </c>
       <c r="E1027" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="F1027" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="G1027" t="n">
         <v>1</v>
@@ -37545,13 +37563,13 @@
         <v>1027</v>
       </c>
       <c r="E1028" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="F1028" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="G1028" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1028" t="s">
         <v>4</v>
@@ -37574,10 +37592,10 @@
         <v>1028</v>
       </c>
       <c r="E1029" t="s">
-        <v>1681</v>
+        <v>257</v>
       </c>
       <c r="F1029" t="s">
-        <v>1682</v>
+        <v>258</v>
       </c>
       <c r="G1029" t="n">
         <v>1</v>
@@ -37603,13 +37621,13 @@
         <v>1029</v>
       </c>
       <c r="E1030" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="F1030" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="G1030" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1030" t="s">
         <v>4</v>
@@ -37632,13 +37650,13 @@
         <v>1030</v>
       </c>
       <c r="E1031" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="F1031" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="G1031" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1031" t="s">
         <v>4</v>
@@ -37661,10 +37679,10 @@
         <v>1031</v>
       </c>
       <c r="E1032" t="s">
-        <v>1939</v>
+        <v>1687</v>
       </c>
       <c r="F1032" t="s">
-        <v>1940</v>
+        <v>1688</v>
       </c>
       <c r="G1032" t="n">
         <v>1</v>
@@ -37696,7 +37714,7 @@
         <v>1942</v>
       </c>
       <c r="G1033" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -37754,7 +37772,7 @@
         <v>1946</v>
       </c>
       <c r="G1035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1035" t="s">
         <v>4</v>
@@ -37806,13 +37824,13 @@
         <v>1036</v>
       </c>
       <c r="E1037" t="s">
-        <v>1475</v>
+        <v>1949</v>
       </c>
       <c r="F1037" t="s">
-        <v>1476</v>
+        <v>1950</v>
       </c>
       <c r="G1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1037" t="s">
         <v>4</v>
@@ -37835,13 +37853,13 @@
         <v>1037</v>
       </c>
       <c r="E1038" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="F1038" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="G1038" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1038" t="s">
         <v>4</v>
@@ -37864,10 +37882,10 @@
         <v>1038</v>
       </c>
       <c r="E1039" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="F1039" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="G1039" t="n">
         <v>1</v>
@@ -37893,13 +37911,13 @@
         <v>1039</v>
       </c>
       <c r="E1040" t="s">
-        <v>1953</v>
+        <v>1479</v>
       </c>
       <c r="F1040" t="s">
-        <v>1954</v>
+        <v>1480</v>
       </c>
       <c r="G1040" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -37957,7 +37975,7 @@
         <v>1958</v>
       </c>
       <c r="G1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -37986,7 +38004,7 @@
         <v>1960</v>
       </c>
       <c r="G1043" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1043" t="s">
         <v>4</v>
@@ -38044,7 +38062,7 @@
         <v>1964</v>
       </c>
       <c r="G1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1045" t="s">
         <v>4</v>
@@ -38073,7 +38091,7 @@
         <v>1966</v>
       </c>
       <c r="G1046" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1046" t="s">
         <v>4</v>
@@ -38183,10 +38201,10 @@
         <v>1049</v>
       </c>
       <c r="E1050" t="s">
-        <v>1749</v>
+        <v>1973</v>
       </c>
       <c r="F1050" t="s">
-        <v>1750</v>
+        <v>1974</v>
       </c>
       <c r="G1050" t="n">
         <v>1</v>
@@ -38212,10 +38230,10 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="F1051" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="G1051" t="n">
         <v>1</v>
@@ -38241,10 +38259,10 @@
         <v>1051</v>
       </c>
       <c r="E1052" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F1052" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="G1052" t="n">
         <v>1</v>
@@ -38270,10 +38288,10 @@
         <v>1052</v>
       </c>
       <c r="E1053" t="s">
-        <v>1977</v>
+        <v>1755</v>
       </c>
       <c r="F1053" t="s">
-        <v>1978</v>
+        <v>1756</v>
       </c>
       <c r="G1053" t="n">
         <v>1</v>
@@ -38334,7 +38352,7 @@
         <v>1982</v>
       </c>
       <c r="G1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1055" t="s">
         <v>4</v>
@@ -38421,7 +38439,7 @@
         <v>1988</v>
       </c>
       <c r="G1058" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1058" t="s">
         <v>4</v>
@@ -38502,10 +38520,10 @@
         <v>1060</v>
       </c>
       <c r="E1061" t="s">
-        <v>1757</v>
+        <v>1993</v>
       </c>
       <c r="F1061" t="s">
-        <v>1758</v>
+        <v>1994</v>
       </c>
       <c r="G1061" t="n">
         <v>1</v>
@@ -38531,10 +38549,10 @@
         <v>1061</v>
       </c>
       <c r="E1062" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F1062" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G1062" t="n">
         <v>1</v>
@@ -38560,10 +38578,10 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1781</v>
+        <v>1997</v>
       </c>
       <c r="F1063" t="s">
-        <v>1782</v>
+        <v>1998</v>
       </c>
       <c r="G1063" t="n">
         <v>1</v>
@@ -38589,10 +38607,10 @@
         <v>1063</v>
       </c>
       <c r="E1064" t="s">
-        <v>1995</v>
+        <v>1763</v>
       </c>
       <c r="F1064" t="s">
-        <v>1996</v>
+        <v>1764</v>
       </c>
       <c r="G1064" t="n">
         <v>1</v>
@@ -38618,13 +38636,13 @@
         <v>1064</v>
       </c>
       <c r="E1065" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F1065" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G1065" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1065" t="s">
         <v>4</v>
@@ -38647,13 +38665,13 @@
         <v>1065</v>
       </c>
       <c r="E1066" t="s">
-        <v>205</v>
+        <v>1787</v>
       </c>
       <c r="F1066" t="s">
-        <v>206</v>
+        <v>1788</v>
       </c>
       <c r="G1066" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="s">
         <v>4</v>
@@ -38676,13 +38694,13 @@
         <v>1066</v>
       </c>
       <c r="E1067" t="s">
-        <v>207</v>
+        <v>2001</v>
       </c>
       <c r="F1067" t="s">
-        <v>208</v>
+        <v>2002</v>
       </c>
       <c r="G1067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38705,13 +38723,13 @@
         <v>1067</v>
       </c>
       <c r="E1068" t="s">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="F1068" t="s">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="G1068" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1068" t="s">
         <v>4</v>
@@ -38734,13 +38752,13 @@
         <v>1068</v>
       </c>
       <c r="E1069" t="s">
-        <v>2001</v>
+        <v>205</v>
       </c>
       <c r="F1069" t="s">
-        <v>2002</v>
+        <v>206</v>
       </c>
       <c r="G1069" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1069" t="s">
         <v>4</v>
@@ -38763,13 +38781,13 @@
         <v>1069</v>
       </c>
       <c r="E1070" t="s">
-        <v>2003</v>
+        <v>207</v>
       </c>
       <c r="F1070" t="s">
-        <v>2004</v>
+        <v>208</v>
       </c>
       <c r="G1070" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1070" t="s">
         <v>4</v>
@@ -38821,10 +38839,10 @@
         <v>1071</v>
       </c>
       <c r="E1072" t="s">
-        <v>1711</v>
+        <v>2007</v>
       </c>
       <c r="F1072" t="s">
-        <v>1712</v>
+        <v>2008</v>
       </c>
       <c r="G1072" t="n">
         <v>1</v>
@@ -38850,10 +38868,10 @@
         <v>1072</v>
       </c>
       <c r="E1073" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F1073" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G1073" t="n">
         <v>1</v>
@@ -38879,10 +38897,10 @@
         <v>1073</v>
       </c>
       <c r="E1074" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F1074" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G1074" t="n">
         <v>1</v>
@@ -38908,10 +38926,10 @@
         <v>1074</v>
       </c>
       <c r="E1075" t="s">
-        <v>2011</v>
+        <v>1717</v>
       </c>
       <c r="F1075" t="s">
-        <v>2012</v>
+        <v>1718</v>
       </c>
       <c r="G1075" t="n">
         <v>1</v>
@@ -39291,7 +39309,7 @@
         <v>2038</v>
       </c>
       <c r="G1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1088" t="s">
         <v>4</v>
@@ -39378,7 +39396,7 @@
         <v>2044</v>
       </c>
       <c r="G1091" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1091" t="s">
         <v>4</v>
@@ -39581,7 +39599,7 @@
         <v>2058</v>
       </c>
       <c r="G1098" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1098" t="s">
         <v>4</v>
@@ -39668,7 +39686,7 @@
         <v>2064</v>
       </c>
       <c r="G1101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1101" t="s">
         <v>4</v>
@@ -40596,7 +40614,7 @@
         <v>2128</v>
       </c>
       <c r="G1133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1133" t="s">
         <v>4</v>
@@ -40683,7 +40701,7 @@
         <v>2134</v>
       </c>
       <c r="G1136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1136" t="s">
         <v>4</v>
@@ -40857,7 +40875,7 @@
         <v>2146</v>
       </c>
       <c r="G1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1142" t="s">
         <v>4</v>
@@ -41002,7 +41020,7 @@
         <v>2156</v>
       </c>
       <c r="G1147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1147" t="s">
         <v>4</v>
@@ -41031,7 +41049,7 @@
         <v>2158</v>
       </c>
       <c r="G1148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1148" t="s">
         <v>4</v>
@@ -41176,7 +41194,7 @@
         <v>2168</v>
       </c>
       <c r="G1153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1153" t="s">
         <v>4</v>
@@ -41321,7 +41339,7 @@
         <v>2178</v>
       </c>
       <c r="G1158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1158" t="s">
         <v>4</v>
@@ -41350,7 +41368,7 @@
         <v>2180</v>
       </c>
       <c r="G1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1159" t="s">
         <v>4</v>
@@ -41408,7 +41426,7 @@
         <v>2184</v>
       </c>
       <c r="G1161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1161" t="s">
         <v>4</v>
@@ -41437,7 +41455,7 @@
         <v>2186</v>
       </c>
       <c r="G1162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1162" t="s">
         <v>4</v>
@@ -41553,7 +41571,7 @@
         <v>2194</v>
       </c>
       <c r="G1166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1166" t="s">
         <v>4</v>
@@ -41640,7 +41658,7 @@
         <v>2200</v>
       </c>
       <c r="G1169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1169" t="s">
         <v>4</v>
@@ -41727,7 +41745,7 @@
         <v>2206</v>
       </c>
       <c r="G1172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1172" t="s">
         <v>4</v>
@@ -41814,7 +41832,7 @@
         <v>2212</v>
       </c>
       <c r="G1175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1175" t="s">
         <v>4</v>
@@ -41988,7 +42006,7 @@
         <v>2224</v>
       </c>
       <c r="G1181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1181" t="s">
         <v>4</v>
@@ -42075,7 +42093,7 @@
         <v>2230</v>
       </c>
       <c r="G1184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1184" t="s">
         <v>4</v>
@@ -42278,7 +42296,7 @@
         <v>2244</v>
       </c>
       <c r="G1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1191" t="s">
         <v>4</v>
@@ -42365,7 +42383,7 @@
         <v>2250</v>
       </c>
       <c r="G1194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1194" t="s">
         <v>4</v>
@@ -42655,7 +42673,7 @@
         <v>2270</v>
       </c>
       <c r="G1204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1204" t="s">
         <v>4</v>
@@ -42684,7 +42702,7 @@
         <v>2272</v>
       </c>
       <c r="G1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1205" t="s">
         <v>4</v>
@@ -42742,7 +42760,7 @@
         <v>2276</v>
       </c>
       <c r="G1207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1207" t="s">
         <v>4</v>
@@ -42771,7 +42789,7 @@
         <v>2278</v>
       </c>
       <c r="G1208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1208" t="s">
         <v>4</v>
@@ -42823,10 +42841,10 @@
         <v>1209</v>
       </c>
       <c r="E1210" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="F1210" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="G1210" t="n">
         <v>1</v>
@@ -42852,10 +42870,10 @@
         <v>1210</v>
       </c>
       <c r="E1211" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="F1211" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="G1211" t="n">
         <v>1</v>
@@ -42881,10 +42899,10 @@
         <v>1211</v>
       </c>
       <c r="E1212" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="F1212" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="G1212" t="n">
         <v>1</v>
@@ -42974,7 +42992,7 @@
         <v>2290</v>
       </c>
       <c r="G1215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1215" t="s">
         <v>4</v>
@@ -43032,7 +43050,7 @@
         <v>2294</v>
       </c>
       <c r="G1217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1217" t="s">
         <v>4</v>
@@ -43061,7 +43079,7 @@
         <v>2296</v>
       </c>
       <c r="G1218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1218" t="s">
         <v>4</v>
@@ -43119,7 +43137,7 @@
         <v>2300</v>
       </c>
       <c r="G1220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1220" t="s">
         <v>4</v>
@@ -43612,7 +43630,7 @@
         <v>2334</v>
       </c>
       <c r="G1237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1237" t="s">
         <v>4</v>
@@ -43699,7 +43717,7 @@
         <v>2340</v>
       </c>
       <c r="G1240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1240" t="s">
         <v>4</v>
@@ -43728,7 +43746,7 @@
         <v>2342</v>
       </c>
       <c r="G1241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1241" t="s">
         <v>4</v>
@@ -43815,7 +43833,7 @@
         <v>2348</v>
       </c>
       <c r="G1244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1244" t="s">
         <v>4</v>
@@ -43873,7 +43891,7 @@
         <v>2352</v>
       </c>
       <c r="G1246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1246" t="s">
         <v>4</v>
@@ -43902,7 +43920,7 @@
         <v>2354</v>
       </c>
       <c r="G1247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1247" t="s">
         <v>4</v>
@@ -43954,13 +43972,13 @@
         <v>1248</v>
       </c>
       <c r="E1249" t="s">
-        <v>221</v>
+        <v>2357</v>
       </c>
       <c r="F1249" t="s">
-        <v>222</v>
+        <v>2358</v>
       </c>
       <c r="G1249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1249" t="s">
         <v>4</v>
@@ -43983,13 +44001,13 @@
         <v>1249</v>
       </c>
       <c r="E1250" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="F1250" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="G1250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1250" t="s">
         <v>4</v>
@@ -44012,10 +44030,10 @@
         <v>1250</v>
       </c>
       <c r="E1251" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="F1251" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="G1251" t="n">
         <v>1</v>
@@ -44041,13 +44059,13 @@
         <v>1251</v>
       </c>
       <c r="E1252" t="s">
-        <v>2361</v>
+        <v>221</v>
       </c>
       <c r="F1252" t="s">
-        <v>2362</v>
+        <v>222</v>
       </c>
       <c r="G1252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1252" t="s">
         <v>4</v>
@@ -44134,7 +44152,7 @@
         <v>2368</v>
       </c>
       <c r="G1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1255" t="s">
         <v>4</v>
@@ -44192,7 +44210,7 @@
         <v>2372</v>
       </c>
       <c r="G1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1257" t="s">
         <v>4</v>
@@ -44250,7 +44268,7 @@
         <v>2376</v>
       </c>
       <c r="G1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1259" t="s">
         <v>4</v>
@@ -44279,7 +44297,7 @@
         <v>2378</v>
       </c>
       <c r="G1260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1260" t="s">
         <v>4</v>
@@ -44308,7 +44326,7 @@
         <v>2380</v>
       </c>
       <c r="G1261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1261" t="s">
         <v>4</v>
@@ -44366,7 +44384,7 @@
         <v>2384</v>
       </c>
       <c r="G1263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1263" t="s">
         <v>4</v>
@@ -44395,7 +44413,7 @@
         <v>2386</v>
       </c>
       <c r="G1264" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1264" t="s">
         <v>4</v>
@@ -44424,7 +44442,7 @@
         <v>2388</v>
       </c>
       <c r="G1265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1265" t="s">
         <v>4</v>
@@ -44453,7 +44471,7 @@
         <v>2390</v>
       </c>
       <c r="G1266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1266" t="s">
         <v>4</v>
@@ -44482,7 +44500,7 @@
         <v>2392</v>
       </c>
       <c r="G1267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1267" t="s">
         <v>4</v>
@@ -44511,7 +44529,7 @@
         <v>2394</v>
       </c>
       <c r="G1268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1268" t="s">
         <v>4</v>
@@ -44627,7 +44645,7 @@
         <v>2402</v>
       </c>
       <c r="G1272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1272" t="s">
         <v>4</v>
@@ -44656,7 +44674,7 @@
         <v>2404</v>
       </c>
       <c r="G1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1273" t="s">
         <v>4</v>
@@ -44708,10 +44726,10 @@
         <v>1274</v>
       </c>
       <c r="E1275" t="s">
-        <v>925</v>
+        <v>2407</v>
       </c>
       <c r="F1275" t="s">
-        <v>926</v>
+        <v>2408</v>
       </c>
       <c r="G1275" t="n">
         <v>3</v>
@@ -44737,13 +44755,13 @@
         <v>1275</v>
       </c>
       <c r="E1276" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="F1276" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="G1276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1276" t="s">
         <v>4</v>
@@ -44766,10 +44784,10 @@
         <v>1276</v>
       </c>
       <c r="E1277" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="F1277" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="G1277" t="n">
         <v>1</v>
@@ -44795,13 +44813,13 @@
         <v>1277</v>
       </c>
       <c r="E1278" t="s">
-        <v>2411</v>
+        <v>925</v>
       </c>
       <c r="F1278" t="s">
-        <v>2412</v>
+        <v>926</v>
       </c>
       <c r="G1278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1278" t="s">
         <v>4</v>
@@ -44859,7 +44877,7 @@
         <v>2416</v>
       </c>
       <c r="G1280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1280" t="s">
         <v>4</v>
@@ -44888,7 +44906,7 @@
         <v>2418</v>
       </c>
       <c r="G1281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1281" t="s">
         <v>4</v>
@@ -44946,7 +44964,7 @@
         <v>2422</v>
       </c>
       <c r="G1283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1283" t="s">
         <v>4</v>
@@ -44975,7 +44993,7 @@
         <v>2424</v>
       </c>
       <c r="G1284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1284" t="s">
         <v>4</v>
@@ -45027,13 +45045,13 @@
         <v>1285</v>
       </c>
       <c r="E1286" t="s">
-        <v>365</v>
+        <v>2427</v>
       </c>
       <c r="F1286" t="s">
-        <v>366</v>
+        <v>2428</v>
       </c>
       <c r="G1286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1286" t="s">
         <v>4</v>
@@ -45056,10 +45074,10 @@
         <v>1286</v>
       </c>
       <c r="E1287" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="F1287" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="G1287" t="n">
         <v>1</v>
@@ -45085,13 +45103,13 @@
         <v>1287</v>
       </c>
       <c r="E1288" t="s">
-        <v>437</v>
+        <v>2431</v>
       </c>
       <c r="F1288" t="s">
-        <v>438</v>
+        <v>2432</v>
       </c>
       <c r="G1288" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1288" t="s">
         <v>4</v>
@@ -45114,13 +45132,13 @@
         <v>1288</v>
       </c>
       <c r="E1289" t="s">
-        <v>1217</v>
+        <v>365</v>
       </c>
       <c r="F1289" t="s">
-        <v>1218</v>
+        <v>366</v>
       </c>
       <c r="G1289" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1289" t="s">
         <v>4</v>
@@ -45143,10 +45161,10 @@
         <v>1289</v>
       </c>
       <c r="E1290" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="F1290" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="G1290" t="n">
         <v>1</v>
@@ -45172,13 +45190,13 @@
         <v>1290</v>
       </c>
       <c r="E1291" t="s">
-        <v>2431</v>
+        <v>437</v>
       </c>
       <c r="F1291" t="s">
-        <v>2432</v>
+        <v>438</v>
       </c>
       <c r="G1291" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1291" t="s">
         <v>4</v>
@@ -45201,13 +45219,13 @@
         <v>1291</v>
       </c>
       <c r="E1292" t="s">
-        <v>2433</v>
+        <v>1217</v>
       </c>
       <c r="F1292" t="s">
-        <v>2434</v>
+        <v>1218</v>
       </c>
       <c r="G1292" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1292" t="s">
         <v>4</v>
@@ -45294,7 +45312,7 @@
         <v>2440</v>
       </c>
       <c r="G1295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1295" t="s">
         <v>4</v>
@@ -45526,7 +45544,7 @@
         <v>2456</v>
       </c>
       <c r="G1303" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H1303" t="s">
         <v>4</v>
@@ -45549,10 +45567,10 @@
         <v>1303</v>
       </c>
       <c r="E1304" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="F1304" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="G1304" t="n">
         <v>1</v>
@@ -45578,18 +45596,105 @@
         <v>1304</v>
       </c>
       <c r="E1305" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="F1305" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="G1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9">
+      <c r="A1306" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>35</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9">
+      <c r="A1307" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9">
+      <c r="A1308" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>1307</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>2465</v>
+      </c>
+      <c r="G1308" t="n">
         <v>2</v>
       </c>
-      <c r="H1305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1305" t="n">
+      <c r="H1308" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1308" t="n">
         <v>3</v>
       </c>
     </row>
